--- a/Financial_Model1.xlsx
+++ b/Financial_Model1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francis/PycharmProjects/financial_model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francis/PycharmProjects/VerticalFarming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6C94C9-E73F-634B-BC8C-53B22B281149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B14173-7BD3-5D47-AAAD-BDFAB9EBBED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-80" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-80" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="14" r:id="rId1"/>
@@ -6092,17 +6092,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6131,16 +6138,9 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -15141,7 +15141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262F1FB0-CD2F-E14E-8300-C92D3DA9F93F}">
   <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="96" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -46043,7 +46043,7 @@
   </sheetPr>
   <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
@@ -46063,26 +46063,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13">
-      <c r="A1" s="392" t="s">
+      <c r="A1" s="379" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
+      <c r="B1" s="380"/>
+      <c r="C1" s="380"/>
+      <c r="D1" s="380"/>
+      <c r="E1" s="380"/>
+      <c r="F1" s="380"/>
+      <c r="G1" s="380"/>
+      <c r="H1" s="380"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A2" s="393"/>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
-      <c r="H2" s="393"/>
+      <c r="A2" s="380"/>
+      <c r="B2" s="380"/>
+      <c r="C2" s="380"/>
+      <c r="D2" s="380"/>
+      <c r="E2" s="380"/>
+      <c r="F2" s="380"/>
+      <c r="G2" s="380"/>
+      <c r="H2" s="380"/>
     </row>
     <row r="3" spans="1:22" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="60" t="s">
@@ -46090,28 +46090,28 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="13">
-      <c r="A4" s="394" t="s">
+      <c r="A4" s="381" t="s">
         <v>585</v>
       </c>
-      <c r="B4" s="393"/>
-      <c r="C4" s="393"/>
-      <c r="D4" s="393"/>
-      <c r="E4" s="393"/>
-      <c r="F4" s="393"/>
-      <c r="G4" s="393"/>
-      <c r="H4" s="393"/>
+      <c r="B4" s="380"/>
+      <c r="C4" s="380"/>
+      <c r="D4" s="380"/>
+      <c r="E4" s="380"/>
+      <c r="F4" s="380"/>
+      <c r="G4" s="380"/>
+      <c r="H4" s="380"/>
     </row>
     <row r="5" spans="1:22" ht="13">
-      <c r="A5" s="395" t="s">
+      <c r="A5" s="382" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="393"/>
-      <c r="C5" s="393"/>
-      <c r="D5" s="393"/>
-      <c r="E5" s="393"/>
-      <c r="F5" s="393"/>
-      <c r="G5" s="393"/>
-      <c r="H5" s="393"/>
+      <c r="B5" s="380"/>
+      <c r="C5" s="380"/>
+      <c r="D5" s="380"/>
+      <c r="E5" s="380"/>
+      <c r="F5" s="380"/>
+      <c r="G5" s="380"/>
+      <c r="H5" s="380"/>
     </row>
     <row r="6" spans="1:22" s="26" customFormat="1" ht="13">
       <c r="A6" s="94" t="s">
@@ -46126,16 +46126,16 @@
       <c r="H6" s="95"/>
     </row>
     <row r="7" spans="1:22" ht="13">
-      <c r="A7" s="396" t="s">
+      <c r="A7" s="383" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="393"/>
-      <c r="C7" s="393"/>
-      <c r="D7" s="393"/>
-      <c r="E7" s="393"/>
-      <c r="F7" s="393"/>
-      <c r="G7" s="393"/>
-      <c r="H7" s="393"/>
+      <c r="B7" s="380"/>
+      <c r="C7" s="380"/>
+      <c r="D7" s="380"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="380"/>
+      <c r="H7" s="380"/>
     </row>
     <row r="8" spans="1:22" s="26" customFormat="1" ht="13">
       <c r="A8" s="273" t="s">
@@ -46199,8 +46199,8 @@
       <c r="Q13" s="235"/>
       <c r="R13" s="236"/>
       <c r="S13" s="236"/>
-      <c r="T13" s="391"/>
-      <c r="U13" s="391"/>
+      <c r="T13" s="378"/>
+      <c r="U13" s="378"/>
     </row>
     <row r="14" spans="1:22" ht="16">
       <c r="A14" s="2" t="s">
@@ -46385,7 +46385,7 @@
       </c>
       <c r="D18" s="286"/>
       <c r="E18" s="286"/>
-      <c r="F18" s="378" t="s">
+      <c r="F18" s="385" t="s">
         <v>686</v>
       </c>
       <c r="G18" s="340" t="s">
@@ -46436,7 +46436,7 @@
       </c>
       <c r="D19" s="286"/>
       <c r="E19" s="286"/>
-      <c r="F19" s="378"/>
+      <c r="F19" s="385"/>
       <c r="G19" s="309" t="s">
         <v>653</v>
       </c>
@@ -46583,7 +46583,7 @@
       </c>
       <c r="D23" s="286"/>
       <c r="E23" s="286"/>
-      <c r="F23" s="389" t="s">
+      <c r="F23" s="394" t="s">
         <v>384</v>
       </c>
       <c r="G23" s="343" t="s">
@@ -46615,7 +46615,7 @@
       </c>
       <c r="D24" s="286"/>
       <c r="E24" s="286"/>
-      <c r="F24" s="389"/>
+      <c r="F24" s="394"/>
       <c r="G24" s="343" t="s">
         <v>664</v>
       </c>
@@ -46647,7 +46647,7 @@
       </c>
       <c r="D25" s="286"/>
       <c r="E25" s="286"/>
-      <c r="F25" s="388" t="s">
+      <c r="F25" s="393" t="s">
         <v>610</v>
       </c>
       <c r="G25" s="340" t="s">
@@ -46688,7 +46688,7 @@
       </c>
       <c r="D26" s="286"/>
       <c r="E26" s="286"/>
-      <c r="F26" s="388"/>
+      <c r="F26" s="393"/>
       <c r="G26" s="340" t="s">
         <v>383</v>
       </c>
@@ -46717,7 +46717,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
-      <c r="F27" s="386" t="s">
+      <c r="F27" s="391" t="s">
         <v>656</v>
       </c>
       <c r="G27" s="202" t="s">
@@ -46750,7 +46750,7 @@
       </c>
       <c r="B28" s="55"/>
       <c r="C28" s="48"/>
-      <c r="F28" s="387"/>
+      <c r="F28" s="392"/>
       <c r="G28" s="202" t="s">
         <v>383</v>
       </c>
@@ -46783,7 +46783,7 @@
         <v>79</v>
       </c>
       <c r="C29" s="48"/>
-      <c r="F29" s="390" t="s">
+      <c r="F29" s="395" t="s">
         <v>655</v>
       </c>
       <c r="G29" s="202" t="s">
@@ -46818,7 +46818,7 @@
         <v>83</v>
       </c>
       <c r="C30" s="187"/>
-      <c r="F30" s="387"/>
+      <c r="F30" s="392"/>
       <c r="G30" s="202" t="s">
         <v>551</v>
       </c>
@@ -46851,7 +46851,7 @@
         <v>165</v>
       </c>
       <c r="C31" s="187"/>
-      <c r="F31" s="382" t="s">
+      <c r="F31" s="387" t="s">
         <v>599</v>
       </c>
       <c r="G31" s="229" t="s">
@@ -46883,7 +46883,7 @@
         <v>164</v>
       </c>
       <c r="C32" s="187"/>
-      <c r="F32" s="383"/>
+      <c r="F32" s="388"/>
       <c r="G32" s="229" t="s">
         <v>383</v>
       </c>
@@ -46942,7 +46942,7 @@
       <c r="B34" s="373" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="381" t="s">
+      <c r="F34" s="384" t="s">
         <v>683</v>
       </c>
       <c r="G34" s="202" t="s">
@@ -46976,7 +46976,7 @@
       <c r="C35" s="271" t="s">
         <v>557</v>
       </c>
-      <c r="F35" s="381"/>
+      <c r="F35" s="384"/>
       <c r="G35" s="202" t="s">
         <v>601</v>
       </c>
@@ -47008,7 +47008,7 @@
       <c r="C36" s="281">
         <v>8</v>
       </c>
-      <c r="F36" s="381"/>
+      <c r="F36" s="384"/>
       <c r="G36" s="202" t="s">
         <v>602</v>
       </c>
@@ -47041,7 +47041,7 @@
         <f>C36*16</f>
         <v>128</v>
       </c>
-      <c r="F37" s="381"/>
+      <c r="F37" s="384"/>
       <c r="G37" s="202" t="s">
         <v>603</v>
       </c>
@@ -47072,7 +47072,7 @@
         <f>C36*VLOOKUP(B36, Database!A97:I107, 5, FALSE)</f>
         <v>2880</v>
       </c>
-      <c r="F38" s="381"/>
+      <c r="F38" s="384"/>
       <c r="G38" s="202" t="s">
         <v>604</v>
       </c>
@@ -47102,7 +47102,7 @@
         <v>575</v>
       </c>
       <c r="C39" s="187"/>
-      <c r="F39" s="384" t="s">
+      <c r="F39" s="389" t="s">
         <v>657</v>
       </c>
       <c r="G39" s="229" t="s">
@@ -47134,7 +47134,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="187"/>
-      <c r="F40" s="385"/>
+      <c r="F40" s="390"/>
       <c r="G40" s="229" t="s">
         <v>383</v>
       </c>
@@ -47168,7 +47168,7 @@
       </c>
       <c r="C41" s="187"/>
       <c r="D41" s="56"/>
-      <c r="F41" s="378" t="s">
+      <c r="F41" s="385" t="s">
         <v>681</v>
       </c>
       <c r="G41" s="309" t="s">
@@ -47199,7 +47199,7 @@
         <v>166</v>
       </c>
       <c r="C42" s="187"/>
-      <c r="F42" s="378"/>
+      <c r="F42" s="385"/>
       <c r="G42" s="229" t="s">
         <v>682</v>
       </c>
@@ -47237,11 +47237,11 @@
         <v>790</v>
       </c>
       <c r="C44" s="187"/>
-      <c r="G44" s="380" t="s">
+      <c r="G44" s="396" t="s">
         <v>670</v>
       </c>
-      <c r="H44" s="380"/>
-      <c r="I44" s="380"/>
+      <c r="H44" s="396"/>
+      <c r="I44" s="396"/>
     </row>
     <row r="45" spans="1:12" s="177" customFormat="1" ht="16">
       <c r="A45" s="188" t="s">
@@ -52556,17 +52556,17 @@
     </row>
     <row r="142" spans="1:22" ht="15.75" customHeight="1">
       <c r="F142" s="286"/>
-      <c r="G142" s="378" t="s">
+      <c r="G142" s="385" t="s">
         <v>700</v>
       </c>
-      <c r="H142" s="379"/>
-      <c r="I142" s="379"/>
+      <c r="H142" s="386"/>
+      <c r="I142" s="386"/>
       <c r="K142" s="286"/>
-      <c r="L142" s="378" t="s">
+      <c r="L142" s="385" t="s">
         <v>701</v>
       </c>
-      <c r="M142" s="379"/>
-      <c r="N142" s="379"/>
+      <c r="M142" s="386"/>
+      <c r="N142" s="386"/>
     </row>
     <row r="143" spans="1:22" ht="15.75" customHeight="1">
       <c r="F143" s="289" t="s">
@@ -52905,17 +52905,17 @@
     </row>
     <row r="153" spans="6:17" ht="15.75" customHeight="1">
       <c r="F153" s="286"/>
-      <c r="G153" s="378" t="s">
+      <c r="G153" s="385" t="s">
         <v>699</v>
       </c>
-      <c r="H153" s="378"/>
-      <c r="I153" s="378"/>
+      <c r="H153" s="385"/>
+      <c r="I153" s="385"/>
       <c r="K153" s="286"/>
-      <c r="L153" s="378" t="s">
+      <c r="L153" s="385" t="s">
         <v>699</v>
       </c>
-      <c r="M153" s="378"/>
-      <c r="N153" s="378"/>
+      <c r="M153" s="385"/>
+      <c r="N153" s="385"/>
       <c r="P153" s="48" t="s">
         <v>64</v>
       </c>
@@ -53022,11 +53022,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="L142:N142"/>
+    <mergeCell ref="L153:N153"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="F41:F42"/>
     <mergeCell ref="F34:F38"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G142:I142"/>
@@ -53036,11 +53036,11 @@
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="L142:N142"/>
-    <mergeCell ref="L153:N153"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A7:H7"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="L16">
@@ -54126,34 +54126,34 @@
       <c r="K1" s="98"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="394" t="s">
+      <c r="A2" s="381" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="394"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
-      <c r="H2" s="393"/>
-      <c r="I2" s="393"/>
-      <c r="J2" s="393"/>
-      <c r="K2" s="393"/>
+      <c r="B2" s="381"/>
+      <c r="C2" s="380"/>
+      <c r="D2" s="380"/>
+      <c r="E2" s="380"/>
+      <c r="F2" s="380"/>
+      <c r="G2" s="380"/>
+      <c r="H2" s="380"/>
+      <c r="I2" s="380"/>
+      <c r="J2" s="380"/>
+      <c r="K2" s="380"/>
     </row>
     <row r="3" spans="1:11" s="98" customFormat="1">
-      <c r="A3" s="395" t="s">
+      <c r="A3" s="382" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="395"/>
-      <c r="C3" s="393"/>
-      <c r="D3" s="393"/>
-      <c r="E3" s="393"/>
-      <c r="F3" s="393"/>
-      <c r="G3" s="393"/>
-      <c r="H3" s="393"/>
-      <c r="I3" s="393"/>
-      <c r="J3" s="393"/>
-      <c r="K3" s="393"/>
+      <c r="B3" s="382"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="380"/>
+      <c r="E3" s="380"/>
+      <c r="F3" s="380"/>
+      <c r="G3" s="380"/>
+      <c r="H3" s="380"/>
+      <c r="I3" s="380"/>
+      <c r="J3" s="380"/>
+      <c r="K3" s="380"/>
     </row>
     <row r="4" spans="1:11" s="98" customFormat="1">
       <c r="A4" s="94" t="s">
@@ -54171,19 +54171,19 @@
       <c r="K4" s="95"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="396" t="s">
+      <c r="A5" s="383" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="396"/>
-      <c r="C5" s="393"/>
-      <c r="D5" s="393"/>
-      <c r="E5" s="393"/>
-      <c r="F5" s="393"/>
-      <c r="G5" s="393"/>
-      <c r="H5" s="393"/>
-      <c r="I5" s="393"/>
-      <c r="J5" s="393"/>
-      <c r="K5" s="393"/>
+      <c r="B5" s="383"/>
+      <c r="C5" s="380"/>
+      <c r="D5" s="380"/>
+      <c r="E5" s="380"/>
+      <c r="F5" s="380"/>
+      <c r="G5" s="380"/>
+      <c r="H5" s="380"/>
+      <c r="I5" s="380"/>
+      <c r="J5" s="380"/>
+      <c r="K5" s="380"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="96" t="s">
